--- a/Result/Sc/Sum.xlsx
+++ b/Result/Sc/Sum.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -90,12 +91,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -116,10 +121,367 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.0412522996</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.0538928123</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.045204333</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.0479838317</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.0614399801</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.0655053211</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.0654819312</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.065035114</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.0640125522</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.0614631682</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.0614073143</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.0718072414</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.073110844</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.0727497151</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.0713982484</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.0720869451</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0.0687818749</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.0754685303</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0.0578070408</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.0703151861</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.073887427</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.0751731776</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.0740275542</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.0726709733</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.0741891209</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.0734844452</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0.0794618253</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.0637099542</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.0705647425</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.0747478119</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.0760404686</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.0740268249</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.072669129</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.0749262329</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0.0770220228</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0.0820082695</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0.06655892</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.0706275011</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.0754953018</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.0767992976</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.0739302857</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.0725714698</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.0755579276</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0.0804531221</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0.084367324</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0.0685385114</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0.0705961355</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.0761768338</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.077485861</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.073792067</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.0724334075</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.0761283293</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0.0838341362</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0.0866312698</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0.0700618526</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0.0705105309</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.0768108714</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.0781171338</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.0736318613</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.0722739135</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.0766527021</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0.0871800011</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0.0888339192</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0.0713024869</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.070391534</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.0774076518</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.0787036374</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.0734589245</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0.072101841</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.0771403229</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0.090497174</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0.0909923535</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0.0723509315</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0.0702509533</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.0779737155</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.0792525288</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.0732781011</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0.0719218733</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.0775979651</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0.093792306</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0.0931166073</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0.0732607788</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -146,6 +508,15 @@
       <c r="G1" s="0" t="n">
         <v>-1</v>
       </c>
+      <c r="H1" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -156,206 +527,152 @@
       <c r="A3" s="0" t="n">
         <v>0.51</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>0.0413349379</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>0.53</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>0.0614073143</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>0.0686557</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0.0723016201</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0.0730897377</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0.0726971638</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0.0729970126</v>
-      </c>
       <c r="G5" s="1" t="n">
-        <v>0.071964416</v>
+        <v>0.0702448834</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0.0537829994</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.0575077397</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0.0556371669</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>0.070167423</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0.0739708712</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>0.0751179581</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0.0738828006</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0.0726629807</v>
-      </c>
       <c r="G6" s="1" t="n">
-        <v>0.0738472752</v>
+        <v>0.0733457607</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.0568246233</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.0616829893</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.0628288517</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>0.0703217952</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0.0748011665</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>0.0759617454</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>0.0737866555</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>0.0725651452</v>
-      </c>
       <c r="G7" s="1" t="n">
-        <v>0.074360222</v>
+        <v>0.0753816119</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0.0603235488</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0.0645796716</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0.0670222377</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>1.2</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>0.0702890361</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0.0755226881</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>0.076702722</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0.0735947941</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>0.0723723148</v>
-      </c>
       <c r="G8" s="1" t="n">
-        <v>0.0747673894</v>
+        <v>0.0776142887</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0.0645362216</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0.0682070116</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0.0705913135</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>1.4</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>0.0701620818</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0.0761807236</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>0.0773751445</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>0.0733613314</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0.0721393598</v>
-      </c>
       <c r="G9" s="1" t="n">
-        <v>0.075113135</v>
+        <v>0.0800905332</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0.0692743624</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0.0723616566</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0.0739843744</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>1.6</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>0.06998086</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>0.0767931113</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>0.0779949872</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>0.0731059227</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>0.0718850686</v>
-      </c>
       <c r="G10" s="1" t="n">
-        <v>0.0754128526</v>
+        <v>0.0828066458</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0.0744145792</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0.0769113519</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0.0773689857</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>1.8</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>0.069766241</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>0.0773697028</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>0.0785721511</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>0.0728378346</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0.0716182466</v>
-      </c>
       <c r="G11" s="1" t="n">
-        <v>0.0756758068</v>
+        <v>0.0857498527</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0.079877336</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0.0817735202</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0.0808199013</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>0.0695300302</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>0.0779168081</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>0.0791133891</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>0.0725619284</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>0.0713435746</v>
-      </c>
       <c r="G12" s="1" t="n">
-        <v>0.0759085859</v>
+        <v>0.0889078266</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0.0856101896</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0.0868966603</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0.0843748941</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Result/Sc/Sum.xlsx
+++ b/Result/Sc/Sum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">SBB-MRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIBB-MRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QIBB-MRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR-MRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLI-MRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSM-MRT-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSM-MRT-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM-MRT-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM-MRT-B</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -124,41 +156,41 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="K14" activeCellId="1" sqref="J1:J12 K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I1" s="0" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J1" s="0" t="n">
-        <v>-4</v>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -179,7 +211,7 @@
       <c r="G3" s="1" t="n">
         <v>0.045204333</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="J3" s="1" t="n">
         <v>0.0479838317</v>
       </c>
     </row>
@@ -202,7 +234,7 @@
       <c r="G4" s="1" t="n">
         <v>0.0640125522</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="J4" s="1" t="n">
         <v>0.0614631682</v>
       </c>
     </row>
@@ -229,13 +261,13 @@
         <v>0.0720869451</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.0687818749</v>
+        <v>0.0578070408</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>0.0754685303</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.0578070408</v>
+        <v>0.0687818749</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,13 +293,13 @@
         <v>0.0741891209</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.0734844452</v>
+        <v>0.0637099542</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>0.0794618253</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.0637099542</v>
+        <v>0.0734844452</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -293,13 +325,13 @@
         <v>0.0749262329</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.0770220228</v>
+        <v>0.06655892</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>0.0820082695</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.06655892</v>
+        <v>0.0770220228</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,13 +357,13 @@
         <v>0.0755579276</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.0804531221</v>
+        <v>0.0685385114</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>0.084367324</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.0685385114</v>
+        <v>0.0804531221</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -357,13 +389,13 @@
         <v>0.0761283293</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>0.0838341362</v>
+        <v>0.0700618526</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>0.0866312698</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>0.0700618526</v>
+        <v>0.0838341362</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,13 +421,13 @@
         <v>0.0766527021</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.0871800011</v>
+        <v>0.0713024869</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>0.0888339192</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.0713024869</v>
+        <v>0.0871800011</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -421,13 +453,13 @@
         <v>0.0771403229</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.090497174</v>
+        <v>0.0723509315</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>0.0909923535</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.0723509315</v>
+        <v>0.090497174</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -453,13 +485,13 @@
         <v>0.0775979651</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.093792306</v>
+        <v>0.0732607788</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>0.0931166073</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>0.0732607788</v>
+        <v>0.093792306</v>
       </c>
     </row>
   </sheetData>
@@ -481,13 +513,10 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="n">
@@ -509,13 +538,13 @@
         <v>-1</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="I1" s="0" t="n">
         <v>-3</v>
       </c>
       <c r="J1" s="0" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,13 +570,13 @@
         <v>0.0702448834</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.0537829994</v>
+        <v>0.0556371669</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>0.0575077397</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.0556371669</v>
+        <v>0.0537829994</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,13 +587,13 @@
         <v>0.0733457607</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.0568246233</v>
+        <v>0.0628288517</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>0.0616829893</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.0628288517</v>
+        <v>0.0568246233</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,13 +604,13 @@
         <v>0.0753816119</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.0603235488</v>
+        <v>0.0670222377</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>0.0645796716</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.0670222377</v>
+        <v>0.0603235488</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,13 +621,13 @@
         <v>0.0776142887</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.0645362216</v>
+        <v>0.0705913135</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>0.0682070116</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.0705913135</v>
+        <v>0.0645362216</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,13 +638,13 @@
         <v>0.0800905332</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>0.0692743624</v>
+        <v>0.0739843744</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>0.0723616566</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>0.0739843744</v>
+        <v>0.0692743624</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -626,13 +655,13 @@
         <v>0.0828066458</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.0744145792</v>
+        <v>0.0773689857</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>0.0769113519</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.0773689857</v>
+        <v>0.0744145792</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,13 +672,13 @@
         <v>0.0857498527</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.079877336</v>
+        <v>0.0808199013</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>0.0817735202</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.0808199013</v>
+        <v>0.079877336</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,13 +689,13 @@
         <v>0.0889078266</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.0856101896</v>
+        <v>0.0843748941</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>0.0868966603</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>0.0843748941</v>
+        <v>0.0856101896</v>
       </c>
     </row>
   </sheetData>

--- a/Result/Sc/Sum.xlsx
+++ b/Result/Sc/Sum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -155,13 +155,13 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="1" sqref="J1:J12 K14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,11 +512,14 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1:J12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="n">
